--- a/POS/public/template_barang.xlsx
+++ b/POS/public/template_barang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_2025\Week8\Jobsheet\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_2025\POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9256F704-49C6-4F70-AE01-12A499C2247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C7A9C-443D-4444-9173-BDF6542DA6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4077DC35-193B-4513-BC73-8535DDEAF0AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>kategori_id</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Eyeliner</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>Eyeshadow</t>
+  </si>
+  <si>
+    <t>B021</t>
+  </si>
+  <si>
+    <t>Botol Susu</t>
   </si>
 </sst>
 </file>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BC9FD-7FE9-4526-827F-14A3B954B92A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +550,40 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>120000</v>
+      </c>
+      <c r="E7">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>150000</v>
+      </c>
+      <c r="E8">
+        <v>170000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
